--- a/front-end-leetcode/Leetcode-question-sheet.xlsx
+++ b/front-end-leetcode/Leetcode-question-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Frontend-Technologies\Training\front-end-leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6FC1D1-FF2E-4501-A9CE-3E0545913E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C48B33-854E-44A6-94E1-E30A7B4C6B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B737D53C-CF5E-4B6B-A190-8ACDC97EC4AF}"/>
   </bookViews>
@@ -29,15 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Leetcode question </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Level</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t xml:space="preserve">Searching and sorting level 1 </t>
+  </si>
+  <si>
+    <t>Linear search (Find an element in an array)</t>
+  </si>
+  <si>
+    <t>Binary search (Find an element in an sorted array)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection sort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insertion sort </t>
+  </si>
+  <si>
+    <t>Merge sort</t>
+  </si>
+  <si>
+    <t>Leetcode questions</t>
   </si>
 </sst>
 </file>
@@ -160,7 +181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16DB3E8-ED0F-4481-9C26-ED8964EE2CD9}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +617,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -605,24 +626,24 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -634,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -647,10 +668,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -660,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -673,10 +694,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -686,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -699,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -712,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -725,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -738,17 +759,17 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -760,9 +781,11 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
@@ -771,9 +794,11 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -782,9 +807,11 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -793,9 +820,11 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
@@ -804,9 +833,11 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
@@ -815,15 +846,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -834,8 +867,12 @@
       <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
@@ -843,8 +880,12 @@
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
@@ -852,8 +893,12 @@
       <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
@@ -861,8 +906,12 @@
       <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
@@ -870,8 +919,12 @@
       <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
@@ -879,8 +932,12 @@
       <c r="A26" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
